--- a/test-data/cts-search-results-data.xlsx
+++ b/test-data/cts-search-results-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mashkinaea/IdeaProjects/cgov-digital-platform-qa/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5012E117-CEFF-8442-A6DE-9808920E0429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1223B1AA-FE2C-054B-93AA-A80E491205B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31800" yWindow="5160" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{29D48476-2BE1-4547-8429-BC5CC2E327E5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" activeTab="1" xr2:uid="{29D48476-2BE1-4547-8429-BC5CC2E327E5}"/>
   </bookViews>
   <sheets>
     <sheet name="search_results_pages" sheetId="1" r:id="rId1"/>
@@ -183,12 +183,6 @@
     <t>searchCriteriaValue</t>
   </si>
   <si>
-    <t>/about-cancer/treatment/clinical-trials/search/r?loc=0&amp;q=chicken&amp;rl=1</t>
-  </si>
-  <si>
-    <t>chicken</t>
-  </si>
-  <si>
     <t>/about-cancer/treatment/clinical-trials/search</t>
   </si>
   <si>
@@ -220,6 +214,12 @@
   </si>
   <si>
     <t>/about-cancer/treatment/clinical-trials/advanced-search</t>
+  </si>
+  <si>
+    <t>/about-cancer/treatment/clinical-trials/search/r?loc=0&amp;q=fgdhjvd&amp;rl=1</t>
+  </si>
+  <si>
+    <t>fgdhjvd</t>
   </si>
 </sst>
 </file>
@@ -704,7 +704,7 @@
         <v>67</v>
       </c>
       <c r="M2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s">
         <v>39</v>
@@ -751,7 +751,7 @@
         <v>27</v>
       </c>
       <c r="M3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N3" t="s">
         <v>39</v>
@@ -798,7 +798,7 @@
         <v>29</v>
       </c>
       <c r="M4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N4" t="s">
         <v>39</v>
@@ -845,7 +845,7 @@
         <v>31</v>
       </c>
       <c r="M5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N5" t="s">
         <v>39</v>
@@ -892,7 +892,7 @@
         <v>33</v>
       </c>
       <c r="M6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N6" t="s">
         <v>39</v>
@@ -939,7 +939,7 @@
         <v>13</v>
       </c>
       <c r="M7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N7" t="s">
         <v>39</v>
@@ -958,14 +958,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F2E912-05AB-044E-B414-E9AE6E18C18C}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="59.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="48.5" customWidth="1"/>
     <col min="3" max="3" width="47" customWidth="1"/>
     <col min="4" max="4" width="16.83203125" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>43</v>
@@ -1013,7 +1013,7 @@
         <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1042,19 +1042,19 @@
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
         <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -1082,7 +1082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023F48AD-DC30-3641-96FD-89D60DF300B0}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1098,27 +1098,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
         <v>54</v>
-      </c>
-      <c r="C1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1126,13 +1126,13 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
